--- a/misc/component_dev.xlsx
+++ b/misc/component_dev.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunjs\Desktop\Cansat\SEM 7\DEV\GUI\CANSAT_data_viz\with_dash\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C274D88-879A-48EC-AF50-1F84DA41F568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB76398F-6821-4D43-893A-5C1BD8464A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="1935" windowWidth="20730" windowHeight="11040" xr2:uid="{2771C4AE-BC75-4925-8982-CB62CB8CB148}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2771C4AE-BC75-4925-8982-CB62CB8CB148}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="73">
   <si>
     <t>Individual Elements</t>
   </si>
@@ -211,6 +212,39 @@
   </si>
   <si>
     <t>to use</t>
+  </si>
+  <si>
+    <t>Component_name</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>gimbal-1</t>
+  </si>
+  <si>
+    <t>gimbal-2</t>
+  </si>
+  <si>
+    <t>gimbal-3</t>
+  </si>
+  <si>
+    <t>3d print</t>
+  </si>
+  <si>
+    <t>acrylic cut</t>
+  </si>
+  <si>
+    <t>cansat_plates 4mm</t>
+  </si>
+  <si>
+    <t>cansat_plates 8mm</t>
+  </si>
+  <si>
+    <t>actuation plate 2.5mm</t>
   </si>
 </sst>
 </file>
@@ -614,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1056E77F-D55F-4E00-AFBA-4953BF33AC2A}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -1145,4 +1179,77 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA8D553-C64A-40C4-A239-79370E1413E6}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/misc/component_dev.xlsx
+++ b/misc/component_dev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunjs\Desktop\Cansat\SEM 7\DEV\GUI\CANSAT_data_viz\with_dash\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB76398F-6821-4D43-893A-5C1BD8464A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81198D0-16DE-4FD5-9CA6-2B0D566C899D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2771C4AE-BC75-4925-8982-CB62CB8CB148}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2771C4AE-BC75-4925-8982-CB62CB8CB148}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1056E77F-D55F-4E00-AFBA-4953BF33AC2A}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA8D553-C64A-40C4-A239-79370E1413E6}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
